--- a/lsj7087/10step_recursive/CheckListForm_10step.xlsx
+++ b/lsj7087/10step_recursive/CheckListForm_10step.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/lsj7087_dongguk_edu/Documents/바탕 화면/알고리즘 스터디/작업용/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/lsj7087_dongguk_edu/Documents/바탕 화면/활동/알고리즘 스터디/작업용/10step_recursive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{14B01FA1-A2D7-4A17-859C-9FFE47AA0BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D741AD11-43F3-4115-8E08-0F7DDA415425}"/>
+  <xr:revisionPtr revIDLastSave="420" documentId="8_{14B01FA1-A2D7-4A17-859C-9FFE47AA0BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D74F80A6-B32C-4175-947D-510725A7DEED}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2660" windowWidth="21600" windowHeight="12760" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="24100" windowHeight="16300" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,9 +614,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,6 +621,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -680,22 +695,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA290B9-D938-4FB9-A2F0-C9496544FB19}">
-  <dimension ref="B1:F50"/>
+  <dimension ref="B1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30:T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1031,11 +1031,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1051,23 +1051,25 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="1">
         <v>10872</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="14">
+        <v>44468</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1079,109 +1081,111 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="35"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="35"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="35"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="36"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="26" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="35"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="23" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="36"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="26" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="2:6" ht="7.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="1">
         <v>10870</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="14">
+        <v>44468</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="10" t="s">
         <v>20</v>
       </c>
@@ -1193,109 +1197,111 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="20" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="35"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="35"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="35"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="36"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="26" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="35"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="23" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="36"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="26" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="1">
         <v>2447</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="14">
+        <v>44468</v>
+      </c>
     </row>
     <row r="29" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="10" t="s">
         <v>21</v>
       </c>
@@ -1307,109 +1313,119 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="20" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="35"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="35"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B33" s="16"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="35"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="L33" s="38"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B34" s="16"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
-    </row>
-    <row r="35" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="36"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="26" t="s">
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+      <c r="K34" s="38"/>
+    </row>
+    <row r="35" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="17"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="37" t="s">
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B36" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="35"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="23" t="s">
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B37" s="16"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-    </row>
-    <row r="38" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="36"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="26" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="17"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B40" s="32" t="s">
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B40" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="33"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="1">
         <v>11729</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="18" t="s">
+      <c r="F40" s="14">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="19"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="10" t="s">
         <v>22</v>
       </c>
@@ -1420,90 +1436,90 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="29" t="s">
+    <row r="42" spans="2:13" ht="26" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
-    </row>
-    <row r="43" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="34" t="s">
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
+    </row>
+    <row r="43" spans="2:13" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="20" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B44" s="35"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B44" s="16"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B45" s="35"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B45" s="16"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B46" s="35"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B46" s="16"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
-    </row>
-    <row r="47" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="36"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="26" t="s">
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="17"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B48" s="37" t="s">
+      <c r="E47" s="33"/>
+      <c r="F47" s="34"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B48" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="22"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B49" s="35"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="23" t="s">
+      <c r="B49" s="16"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="25"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="31"/>
     </row>
     <row r="50" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="36"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="26" t="s">
+      <c r="B50" s="17"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="28"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="53">
